--- a/analysis/queryResults/FrequentItemsets_poodle20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_poodle20022018.xlsx
@@ -673,6 +673,3784 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Pooodle Values Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_poodle20022018!$B$2,FrequentItemsets_poodle20022018!$B$13,FrequentItemsets_poodle20022018!$B$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>{poodle=false}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{poodle=true}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{poodle=null}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_poodle20022018!$C$2,FrequentItemsets_poodle20022018!$C$13,FrequentItemsets_poodle20022018!$C$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.901236241392398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7088868405357003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.16748902022448E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="598679472"/>
+        <c:axId val="598681104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="598679472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598681104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598681104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598679472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Poodle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Value False Ratings Distributions </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_poodle20022018!$B$2,FrequentItemsets_poodle20022018!$B$4,FrequentItemsets_poodle20022018!$B$6,FrequentItemsets_poodle20022018!$B$8,FrequentItemsets_poodle20022018!$B$10,FrequentItemsets_poodle20022018!$B$14,FrequentItemsets_poodle20022018!$B$16,FrequentItemsets_poodle20022018!$B$18)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{poodle=false}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,poodle=false}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=A+,poodle=false}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=B,poodle=false}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=A-,poodle=false}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=F,poodle=false}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=T,poodle=false}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=C,poodle=false}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_poodle20022018!$C$2,FrequentItemsets_poodle20022018!$C$4,FrequentItemsets_poodle20022018!$C$6,FrequentItemsets_poodle20022018!$C$8,FrequentItemsets_poodle20022018!$C$10,FrequentItemsets_poodle20022018!$C$14,FrequentItemsets_poodle20022018!$C$16,FrequentItemsets_poodle20022018!$C$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.901236241392398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39043268448733898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14056823727159401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13164886406766799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6445805996855205E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.74066041316489E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4068210161036701E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0665835276256598E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="599809760"/>
+        <c:axId val="599798880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="599809760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599798880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599798880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599809760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Poodle Value True Ratings Distributions </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_poodle20022018!$B$13,FrequentItemsets_poodle20022018!$B$17,FrequentItemsets_poodle20022018!$B$19,FrequentItemsets_poodle20022018!$B$22)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>{poodle=true}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=C,poodle=true}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=F,poodle=true}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=T,poodle=true}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_poodle20022018!$C$13,FrequentItemsets_poodle20022018!$C$17,FrequentItemsets_poodle20022018!$C$19,FrequentItemsets_poodle20022018!$C$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.7088868405357003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1031827793742898E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0702705633573701E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3272244211896103E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="599808672"/>
+        <c:axId val="599810848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="599808672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599810848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599810848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599808672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Poodle Value Null Ratings Distributions </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_poodle20022018!$B$20,FrequentItemsets_poodle20022018!$B$21,FrequentItemsets_poodle20022018!$B$23,FrequentItemsets_poodle20022018!$B$24,FrequentItemsets_poodle20022018!$B$25,FrequentItemsets_poodle20022018!$B$26,FrequentItemsets_poodle20022018!$B$27,FrequentItemsets_poodle20022018!$B$28)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{poodle=null}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,poodle=null}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=B,poodle=null}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=A+,poodle=null}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=F,poodle=null}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=C,poodle=null}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=A-,poodle=null}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=T,poodle=null}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_poodle20022018!$C$20,FrequentItemsets_poodle20022018!$C$21,FrequentItemsets_poodle20022018!$C$23,FrequentItemsets_poodle20022018!$C$24,FrequentItemsets_poodle20022018!$C$25,FrequentItemsets_poodle20022018!$C$26,FrequentItemsets_poodle20022018!$C$27,FrequentItemsets_poodle20022018!$C$28)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.16748902022448E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1812069619909997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.92056606842705E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.69750040665835E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.54839234397875E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0061812069619902E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.77574147372987E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5453017404977499E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="603344912"/>
+        <c:axId val="603356880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="603344912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="603356880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="603356880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="603344912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>278564</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>126331</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -938,8 +4716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" activeCellId="15" sqref="B20 C20 B21 C21 B23 C23 B24 C24 B25 C25 B26 C26 B27 C27 B28 C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,5 +5116,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis/queryResults/FrequentItemsets_poodle20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_poodle20022018.xlsx
@@ -708,7 +708,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Pooodle Values Distribution</a:t>
+              <a:t>Poodle Values Distribution</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -868,11 +868,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="598679472"/>
-        <c:axId val="598681104"/>
+        <c:axId val="692513552"/>
+        <c:axId val="881952048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="598679472"/>
+        <c:axId val="692513552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598681104"/>
+        <c:crossAx val="881952048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -923,7 +923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="598681104"/>
+        <c:axId val="881952048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,7 +974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598679472"/>
+        <c:crossAx val="692513552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1018,7 +1018,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1062,7 +1062,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Value False Ratings Distributions </a:t>
+              <a:t> Value False Ratings Distribution </a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1253,11 +1253,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="599809760"/>
-        <c:axId val="599798880"/>
+        <c:axId val="881955312"/>
+        <c:axId val="881955856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="599809760"/>
+        <c:axId val="881955312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599798880"/>
+        <c:crossAx val="881955856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1308,7 +1308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599798880"/>
+        <c:axId val="881955856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599809760"/>
+        <c:crossAx val="881955312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1403,7 +1403,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1442,12 +1442,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-GB" sz="1600" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Poodle Value True Ratings Distributions </a:t>
+              <a:t>Poodle Value True Ratings Distribution </a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB">
+            <a:endParaRPr lang="en-GB" sz="1600">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -1614,11 +1614,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="599808672"/>
-        <c:axId val="599810848"/>
+        <c:axId val="881965648"/>
+        <c:axId val="881961840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="599808672"/>
+        <c:axId val="881965648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +1661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599810848"/>
+        <c:crossAx val="881961840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1669,7 +1669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="599810848"/>
+        <c:axId val="881961840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,7 +1720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599808672"/>
+        <c:crossAx val="881965648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1764,7 +1764,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1790,7 +1790,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1803,12 +1803,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-GB" sz="1600" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Poodle Value Null Ratings Distributions </a:t>
+              <a:t>Poodle Value Null Ratings Distribution </a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB">
+            <a:endParaRPr lang="en-GB" sz="1600">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -1828,7 +1828,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1999,11 +1999,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="603344912"/>
-        <c:axId val="603356880"/>
+        <c:axId val="881959664"/>
+        <c:axId val="881956400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603344912"/>
+        <c:axId val="881959664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,7 +2046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603356880"/>
+        <c:crossAx val="881956400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2054,7 +2054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603356880"/>
+        <c:axId val="881956400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2105,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603344912"/>
+        <c:crossAx val="881959664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2149,7 +2149,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4716,8 +4716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" activeCellId="15" sqref="B20 C20 B21 C21 B23 C23 B24 C24 B25 C25 B26 C26 B27 C27 B28 C28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
